--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="logindetails" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="assignleave" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t xml:space="preserve">uname</t>
   </si>
@@ -28,15 +29,55 @@
     <t xml:space="preserve">pass</t>
   </si>
   <si>
-    <t xml:space="preserve">jesuwin</t>
+    <t xml:space="preserve">Admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">admin123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">empname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">leavetype</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fromdate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">todate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">John Smith</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vacation US </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Full Day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vacation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -103,9 +144,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -127,8 +176,8 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -149,7 +198,74 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="logindetails" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="assignleave" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="pim" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve">uname</t>
   </si>
@@ -53,10 +54,13 @@
     <t xml:space="preserve">comment</t>
   </si>
   <si>
+    <t xml:space="preserve">partialday</t>
+  </si>
+  <si>
     <t xml:space="preserve">John Smith</t>
   </si>
   <si>
-    <t xml:space="preserve">Vacation US </t>
+    <t xml:space="preserve">Vacation US</t>
   </si>
   <si>
     <t xml:space="preserve">2020-05-02</t>
@@ -69,6 +73,15 @@
   </si>
   <si>
     <t xml:space="preserve">Vacation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All Days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">empToSearch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hannah Flores</t>
   </si>
 </sst>
 </file>
@@ -217,10 +230,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -247,25 +260,68 @@
       <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="G1" s="0" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="logindetails" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="assignleave" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="pim" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="newempdetails" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t xml:space="preserve">uname</t>
   </si>
@@ -78,10 +79,31 @@
     <t xml:space="preserve">All Days</t>
   </si>
   <si>
-    <t xml:space="preserve">empToSearch</t>
+    <t xml:space="preserve">emptosearch</t>
   </si>
   <si>
     <t xml:space="preserve">Hannah Flores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">firstname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">middlename</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lastname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">empid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jesuwin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wilfred</t>
   </si>
 </sst>
 </file>
@@ -157,7 +179,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -168,6 +190,10 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -305,8 +331,8 @@
   </sheetPr>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -315,13 +341,68 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>1020</v>
       </c>
     </row>
   </sheetData>

--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="logindetails" sheetId="1" state="visible" r:id="rId2"/>
@@ -64,10 +64,10 @@
     <t xml:space="preserve">Vacation US</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-05-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-06-01</t>
+    <t xml:space="preserve">01-05-2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01-06-2020</t>
   </si>
   <si>
     <t xml:space="preserve">Full Day</t>
@@ -258,8 +258,8 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -368,7 +368,7 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>

--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -61,13 +61,13 @@
     <t xml:space="preserve">John Smith</t>
   </si>
   <si>
-    <t xml:space="preserve">Vacation US</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01-05-2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01-06-2020</t>
+    <t xml:space="preserve">FMLA US,Maternity US,Peternity US,Vacation US</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-06-01</t>
   </si>
   <si>
     <t xml:space="preserve">Full Day</t>
@@ -259,7 +259,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -290,7 +290,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>

--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -12,6 +12,7 @@
     <sheet name="assignleave" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="pim" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="newempdetails" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="leavereport" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t xml:space="preserve">uname</t>
   </si>
@@ -61,7 +62,7 @@
     <t xml:space="preserve">John Smith</t>
   </si>
   <si>
-    <t xml:space="preserve">FMLA US,Maternity US,Peternity US,Vacation US</t>
+    <t xml:space="preserve">Vacation US</t>
   </si>
   <si>
     <t xml:space="preserve">2020-05-01</t>
@@ -104,6 +105,18 @@
   </si>
   <si>
     <t xml:space="preserve">Wilfred</t>
+  </si>
+  <si>
+    <t xml:space="preserve">generatefor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">employee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fiona Grace</t>
   </si>
 </sst>
 </file>
@@ -259,7 +272,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -290,7 +303,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -414,4 +427,47 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t xml:space="preserve">uname</t>
   </si>
@@ -65,10 +65,10 @@
     <t xml:space="preserve">Vacation US</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-05-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-06-01</t>
+    <t xml:space="preserve">01-05-2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01-06-2020</t>
   </si>
   <si>
     <t xml:space="preserve">Full Day</t>
@@ -83,7 +83,7 @@
     <t xml:space="preserve">emptosearch</t>
   </si>
   <si>
-    <t xml:space="preserve">Hannah Flores</t>
+    <t xml:space="preserve">Linda Anderson</t>
   </si>
   <si>
     <t xml:space="preserve">firstname</t>
@@ -114,9 +114,6 @@
   </si>
   <si>
     <t xml:space="preserve">Employee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fiona Grace</t>
   </si>
 </sst>
 </file>
@@ -272,7 +269,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -345,7 +342,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -437,7 +434,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -458,7 +455,7 @@
         <v>29</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
